--- a/service/src/test/resources/Track.xlsx
+++ b/service/src/test/resources/Track.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t xml:space="preserve">trackId</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t xml:space="preserve">2012-07-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY COVER BAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative&amp;Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY BAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock</t>
   </si>
 </sst>
 </file>
@@ -244,13 +262,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.1"/>
@@ -392,6 +410,140 @@
         <v>33</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>40951</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
